--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/77_Uşak_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/77_Uşak_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0129EB66-77BF-45F5-ACA4-26ECA87151D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83CF29B7-BEBC-46E7-A367-E327419EA688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="687" xr2:uid="{540861F4-9DAB-4C47-9757-7E48A0C9FB3F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="687" xr2:uid="{26C49F91-5204-4969-B6F5-BD29080E74A0}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -958,15 +958,15 @@
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{82600E77-24BB-4A5F-8035-38942D191CBD}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{C600F37D-1103-44F6-9C83-B684C44F23D9}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{5400BFB9-85FD-42B9-BA87-4D0050D266BB}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{6B434A1D-A3AB-4B43-A588-BC41C570BBC1}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{A77D9206-FA84-40CC-93EA-A3BFBC7B8B38}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{17A0E2E8-DB05-4024-89B6-4D19F8307FDC}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{D77C2808-BB4E-4408-8E64-9CC1F88C74E9}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{36C7CCD1-C2AA-4AF9-B757-479670F0E322}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{F48AB078-7110-4A8F-B58D-98429271F8FA}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{B51D7419-7DD4-414C-BD85-4862A286CB95}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{6AEA2C22-8C84-40D6-9336-888FFDC383DD}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{9EA23E0F-CBFA-4866-8DA5-ECCCFA8AD6BE}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{8824A59D-57CA-43C7-BFE3-1B40932B6E13}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{131B7D58-B40C-45F5-9616-875662E55DC9}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{80992A4A-5F9E-4AFA-94AC-F4AA4DEA5E5C}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{0472E768-3997-44A5-A916-4E02E751DC0E}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{99E16BD0-A189-4AA9-8DA4-86A216477EA2}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{95E7A353-0805-4A76-8B6B-B3A5854FAE25}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1336,7 +1336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A03987E-89DC-46FF-A50E-859DD6583D02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A84EA6F-A837-4A25-89D4-26B7854756CC}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -2610,7 +2610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A0F7FF-E811-4393-841C-72DB44AB278E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315F2DEF-AE2D-4F9F-BF3C-76B129EE9740}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -3878,7 +3878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E60152-A10B-4ADD-AEEE-75A5324DBED9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D270166-DC5C-4234-A2FC-392337A3C9C3}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -5140,7 +5140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191B1332-74D3-49A5-BEF8-34A91551A41F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CAE010F-FC4A-4793-BA37-276B530DD640}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -6402,7 +6402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF0FAC8-522E-4CC0-A627-BC1B3B997FDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4600FA-9D0B-41AE-9864-73CB7DD9A0F4}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -7676,7 +7676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D0F81C-509C-4B9E-80B9-CFD0D3AB16F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5719370C-72E9-4C6F-992D-2D0210DEA78E}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -8950,7 +8950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935D258E-8C74-45FA-AC95-72833C579AA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FD82B7-6855-49F1-9D53-0DA20EC93DBC}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -10226,7 +10226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB506E99-097F-4E42-AB01-6F0E399700E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A05B13B-D135-4B38-9683-388FE1BA5E39}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -11502,7 +11502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDD99A6-4C0C-4BA0-B20A-0AEA436C30D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FED076-BC62-460A-8573-CC5ECBFDE00F}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -12776,7 +12776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E761D2AD-8AA7-4A7C-AC81-CDB68DB8EBC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7D4DE2-B849-41DF-AD14-58DE4F4B8A90}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -14052,7 +14052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389AD58C-6B4D-403F-B4A9-2A2F49873A21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3938EE6F-6B61-4579-B6AE-69FCD6A3E725}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -15322,7 +15322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAA2C33-5832-4371-ADF3-5A76C0CF4EAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5D3C58-CCEC-4068-A66E-63E6F6134953}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
